--- a/biology/Botanique/Liste_de_genres_de_plantes_mycohétérotrophes/Liste_de_genres_de_plantes_mycohétérotrophes.xlsx
+++ b/biology/Botanique/Liste_de_genres_de_plantes_mycohétérotrophes/Liste_de_genres_de_plantes_mycohétérotrophes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste recense les genres de plantes qui établissent des relations mycohétérotrophes[1].
-Les plantes entièrement mycohétérotrophes ne partagent qu'une caractéristique particulière : l'obligation d'obtenir du carbone à partir de champignons. Bien que la mycohétérotrophie soit relativement rare dans la nature, les multiples origines indépendantes de ce mode de vie ont produit un éventail remarquable d'espèces dans presque tous les grands groupes de plantes terrestres. Cette liste recense les espèces de plantes supposées entièrement mycohétérotrophes et couvre 17 familles, 101 genres et environ 880 espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste recense les genres de plantes qui établissent des relations mycohétérotrophes.
+Les plantes entièrement mycohétérotrophes ne partagent qu'une caractéristique particulière : l'obligation d'obtenir du carbone à partir de champignons. Bien que la mycohétérotrophie soit relativement rare dans la nature, les multiples origines indépendantes de ce mode de vie ont produit un éventail remarquable d'espèces dans presque tous les grands groupes de plantes terrestres. Cette liste recense les espèces de plantes supposées entièrement mycohétérotrophes et couvre 17 familles, 101 genres et environ 880 espèces.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Marchantiophyta</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aneuraceae
 Riccardia
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lycopodiopsida</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lycopodiaceae
 Huperzia
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Polypodiopsida</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ophioglossaceae
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Gymnospermes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Podocarpaceae
 Parasitaxus</t>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Petrosaviaceae
 Petrosavia
 Burmanniaceae
@@ -725,7 +751,43 @@
 Yoania
 Iridaceae
 Geosiris
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_genres_de_plantes_mycohétérotrophes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_genres_de_plantes_mycoh%C3%A9t%C3%A9rotrophes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Thismiaceae
 Afrothismia
 Thismia
